--- a/biology/Zoologie/Corophium_volutator/Corophium_volutator.xlsx
+++ b/biology/Zoologie/Corophium_volutator/Corophium_volutator.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corophium volutator, parfois connu sous le nom de « corophie tourneur »[1], est une espèce de petits crustacés amphipodes de la famille des Corophiidae. Il forme des populations très denses dans les vases et les sables vaseux littoraux.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corophium volutator, parfois connu sous le nom de « corophie tourneur », est une espèce de petits crustacés amphipodes de la famille des Corophiidae. Il forme des populations très denses dans les vases et les sables vaseux littoraux.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce habite les eaux froides et tempérées des deux côtés de l’Atlantique nord : de la Baltique et de la mer du Nord à la mer Cantabrique sur la rive européenne, en Nouvelle-Écosse et au Nouveau-Brunswick sur la rive américaine.
 </t>
@@ -542,10 +556,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C. volutator construit dans le sédiment un terrier en forme de « U » dont il tapisse les parois de soie. Son alimentation est de type microphage suspensivore : à haute mer, il produit un courant qui traverse son tube en y entraînant les particules alimentaires planctoniques dont il se nourrit.
-Il peut former des populations considérables dans les sables vaseux des baies et des estuaires, les densités pouvant atteindre 60 000[2] et même 100 000 individus par m2[3].
+Il peut former des populations considérables dans les sables vaseux des baies et des estuaires, les densités pouvant atteindre 60 000 et même 100 000 individus par m2.
 </t>
         </is>
       </c>
